--- a/Original_Excel_Files/B100-708.xlsx
+++ b/Original_Excel_Files/B100-708.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0268C83A-FC48-4177-B451-EB4AF871187E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9673165-95EA-4C24-94C7-782B66A6DA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="310">
   <si>
     <t>B105 .C45 M36 1984</t>
   </si>
@@ -621,6 +621,333 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Matthews</t>
+  </si>
+  <si>
+    <t>Blackmore, Susan</t>
+  </si>
+  <si>
+    <t>Blackmore</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Lovejoy</t>
+  </si>
+  <si>
+    <t>Aurthur O.</t>
+  </si>
+  <si>
+    <t>Stroll, Avrum</t>
+  </si>
+  <si>
+    <t>Stroll</t>
+  </si>
+  <si>
+    <t>Avrum</t>
+  </si>
+  <si>
+    <t>Solomon</t>
+  </si>
+  <si>
+    <t>Robert C.</t>
+  </si>
+  <si>
+    <t>MacIntyre</t>
+  </si>
+  <si>
+    <t>Alasdair</t>
+  </si>
+  <si>
+    <t>Adler</t>
+  </si>
+  <si>
+    <t>Mortimer J.</t>
+  </si>
+  <si>
+    <t>Putnam, Hilary</t>
+  </si>
+  <si>
+    <t>Ruddick</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Casey, Edward S.</t>
+  </si>
+  <si>
+    <t>Chaffee</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Pappas</t>
+  </si>
+  <si>
+    <t>Nickolas</t>
+  </si>
+  <si>
+    <t>Loux, Michael J.</t>
+  </si>
+  <si>
+    <t>Smith, T.V. ed., Marjorie Grene ed.</t>
+  </si>
+  <si>
+    <t>ed. Smith T. V.</t>
+  </si>
+  <si>
+    <t>Koller</t>
+  </si>
+  <si>
+    <t>John M.</t>
+  </si>
+  <si>
+    <t>Chai</t>
+  </si>
+  <si>
+    <t>Ch'u</t>
+  </si>
+  <si>
+    <t>Radhakrishnan (Ed)</t>
+  </si>
+  <si>
+    <t>Gandhi</t>
+  </si>
+  <si>
+    <t>M. K.</t>
+  </si>
+  <si>
+    <t>Puligandla</t>
+  </si>
+  <si>
+    <t>R.</t>
+  </si>
+  <si>
+    <t>Ajaya</t>
+  </si>
+  <si>
+    <t>Swami</t>
+  </si>
+  <si>
+    <t>Wood, Ernest E.</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Ernest E.</t>
+  </si>
+  <si>
+    <t>Donnelly</t>
+  </si>
+  <si>
+    <t>Morwena</t>
+  </si>
+  <si>
+    <t>Philo</t>
+  </si>
+  <si>
+    <t>Hyland, Drew A.</t>
+  </si>
+  <si>
+    <t>Armstrong, A.H.</t>
+  </si>
+  <si>
+    <t>Brumbaugh, Robert S.</t>
+  </si>
+  <si>
+    <t>Burnet, John</t>
+  </si>
+  <si>
+    <t>Cornford, F.M.</t>
+  </si>
+  <si>
+    <t>Allen, Reginald E. ed.</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Reginald E.</t>
+  </si>
+  <si>
+    <t>W.K.C. Guthrie</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>James N.</t>
+  </si>
+  <si>
+    <t>Cohen, Marc; Patricia Curd, and C.D.C. Reeve</t>
+  </si>
+  <si>
+    <t>Kingsley, Peter</t>
+  </si>
+  <si>
+    <t>Maritain</t>
+  </si>
+  <si>
+    <t>Jacques</t>
+  </si>
+  <si>
+    <t>G.B. Kerferd</t>
+  </si>
+  <si>
+    <t>Reeve, C.D.C.</t>
+  </si>
+  <si>
+    <t>Brickhouse, Thomas C. and Nicholas D. Smith</t>
+  </si>
+  <si>
+    <t>Godel, Roger</t>
+  </si>
+  <si>
+    <t>Biffle, Christopher</t>
+  </si>
+  <si>
+    <t>trans. Church, F. J.</t>
+  </si>
+  <si>
+    <t>Plato</t>
+  </si>
+  <si>
+    <t>G.M.A Grube trans.</t>
+  </si>
+  <si>
+    <t>trans. Jowett, Benjamin</t>
+  </si>
+  <si>
+    <t>Buchanan, Scott ed.</t>
+  </si>
+  <si>
+    <t>trans. Tredennick, Hugh</t>
+  </si>
+  <si>
+    <t>trans. Helmbold, W.C.</t>
+  </si>
+  <si>
+    <t>Waterfield, Robin trans.</t>
+  </si>
+  <si>
+    <t>Zeyl, Donald J. trans.</t>
+  </si>
+  <si>
+    <t>Dilman, Ilham</t>
+  </si>
+  <si>
+    <t>trans. Hamilton, Walter</t>
+  </si>
+  <si>
+    <t>trans. Helmbold, W.C. and Rabinowitz, W. G.</t>
+  </si>
+  <si>
+    <t>trans. Nehamas, Alexander and Woodruff, Paul</t>
+  </si>
+  <si>
+    <t>Nehams, Alexander and Paul Woodruff ed.</t>
+  </si>
+  <si>
+    <t>trans. Guthrie, W. K. C.</t>
+  </si>
+  <si>
+    <t>Dover, Kenneth</t>
+  </si>
+  <si>
+    <t>Applebaum, Stanley ed.</t>
+  </si>
+  <si>
+    <t>trans. Cornford, Francis M.</t>
+  </si>
+  <si>
+    <t>Sallis, John</t>
+  </si>
+  <si>
+    <t>Ryle, Gilbert</t>
+  </si>
+  <si>
+    <t>Grube, G. M. A.</t>
+  </si>
+  <si>
+    <t>Murdoch</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>Gadamer, Hans-Georg</t>
+  </si>
+  <si>
+    <t>Brisson, Luc</t>
+  </si>
+  <si>
+    <t>Havelock, Eric A.</t>
+  </si>
+  <si>
+    <t>ed. McKeon, Richard</t>
+  </si>
+  <si>
+    <t>ed. Kaplan, Justin D.</t>
+  </si>
+  <si>
+    <t>Irwin, Terence trans.</t>
+  </si>
+  <si>
+    <t>Ackrill, J.L.</t>
+  </si>
+  <si>
+    <t>trans. Ackrill. J. L.</t>
+  </si>
+  <si>
+    <t>Ross, David Sir</t>
+  </si>
+  <si>
+    <t>Saunders, Jason L. ed.</t>
+  </si>
+  <si>
+    <t>Clark, Gordon H.</t>
+  </si>
+  <si>
+    <t>Inwood, Brad and L.P. Gerson</t>
+  </si>
+  <si>
+    <t>Hyde, William de Witt</t>
+  </si>
+  <si>
+    <t>ed. Inwood, Brad and Gerson, L. P.</t>
+  </si>
+  <si>
+    <t>ed. Langston, Douglas C.</t>
+  </si>
+  <si>
+    <t>trans. Yonge, C.D.</t>
+  </si>
+  <si>
+    <t>Lamprecht</t>
+  </si>
+  <si>
+    <t>Sterling P. Ed.</t>
+  </si>
+  <si>
+    <t>trans. O'Brien, Elmer</t>
+  </si>
+  <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>Gail (Ed)</t>
+  </si>
+  <si>
+    <t>Gareth B.</t>
+  </si>
+  <si>
+    <t>Author</t>
   </si>
 </sst>
 </file>
@@ -725,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -774,6 +1101,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,1745 +1449,2278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="129.28515625" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" customWidth="1"/>
+    <col min="1" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="129.28515625" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="21">
         <v>2005</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="22">
         <v>2005</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="21">
         <v>2006</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="24">
         <v>2006</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="22">
         <v>1993</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="21">
         <v>1978</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="21">
         <v>1997</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="22">
         <v>1998</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="E15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="21">
         <v>1970</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="21">
         <v>1967</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="21">
         <v>1956</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="21">
         <v>1957</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="24">
         <v>1975</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="23">
         <v>1974</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="21">
         <v>1948</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="23">
         <v>1948</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="23">
         <v>1956</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="21">
         <v>1973</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="E31" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="23">
         <v>1966</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="21">
         <v>1966</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="26">
         <v>1982</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="E34" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D35" s="27">
         <v>1982</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" s="27">
         <v>1968</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" s="26">
         <v>1968</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="E37" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="23">
         <v>1962</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="27">
         <v>1962</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="26">
         <v>1985</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="E40" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D41" s="27">
         <v>1985</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="27">
         <v>1985</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="E42" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" t="s">
+        <v>249</v>
+      </c>
+      <c r="D43" s="23">
         <v>1985</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="24">
         <v>1991</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="26">
         <v>1975</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="E45" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="21">
         <v>1975</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="27">
         <v>1965</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="E47" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="23">
         <v>1965</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="E48" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B49" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" s="24">
         <v>1987</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D50" s="26">
         <v>1995</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="E50" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" s="27">
         <v>1995</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="E51" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" s="27">
         <v>1999</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="E52" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="23">
         <v>1999</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D54" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" s="23">
         <v>1981</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D56" s="27">
         <v>1981</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="E56" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" s="21">
         <v>2002</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="E57" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" t="s">
+        <v>261</v>
+      </c>
+      <c r="D58" s="23">
         <v>1993</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="27">
+      <c r="B59" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" s="27">
         <v>1993</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="E59" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" s="21">
         <v>1955</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="E60" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" t="s">
+        <v>262</v>
+      </c>
+      <c r="D61" s="23">
         <v>1955</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62" s="26">
         <v>1988</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="E62" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="27">
         <v>1988</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="E63" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B64" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="27">
         <v>1956</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="E64" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="24">
+      <c r="B65" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" s="35"/>
+      <c r="D65" s="24">
         <v>1981</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="26">
         <v>2002</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="E66" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="27">
+      <c r="B67" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" s="27">
         <v>2002</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="E67" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="27">
+      <c r="B68" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" s="27">
         <v>1949</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="E68" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B69" t="s">
+        <v>268</v>
+      </c>
+      <c r="D69" s="23">
         <v>1977</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B70" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" s="21">
         <v>1977</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="E70" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B71" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="21">
         <v>1941</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="27">
+      <c r="B72" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" s="27">
         <v>1954</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="E72" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B73" s="27">
+      <c r="B73" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="27">
         <v>1979</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="E73" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" s="21">
         <v>1952</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="E74" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="21">
+      <c r="B75" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" s="21">
         <v>1994</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="E75" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="23">
+      <c r="B76" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="23">
         <v>1994</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D76" s="6"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="6"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B77" s="23">
+      <c r="B77" t="s">
+        <v>272</v>
+      </c>
+      <c r="D77" s="23">
         <v>1986</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="6"/>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78" s="21">
         <v>1986</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="E78" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B79" s="21">
+      <c r="B79" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D79" s="21">
         <v>1951</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="E79" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B80" s="21">
+      <c r="B80" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D80" s="21">
         <v>1992</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="E80" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="26">
+      <c r="B81" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D81" s="26">
         <v>1992</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="E81" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B82" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" s="27">
         <v>1973</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="E82" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B83" s="27">
+      <c r="B83" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D83" s="27">
         <v>1956</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="E83" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B84" s="27">
+      <c r="B84" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="D84" s="27">
         <v>1995</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="E84" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="27">
+      <c r="B85" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="27">
         <v>1995</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="E85" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="26">
+      <c r="B86" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86" s="26">
         <v>1995</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="E86" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B87" s="21">
+      <c r="B87" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D87" s="21">
         <v>1986</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="E87" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="23">
+      <c r="B88" t="s">
+        <v>279</v>
+      </c>
+      <c r="D88" s="23">
         <v>1979</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="27">
+      <c r="B89" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="D89" s="27">
         <v>1979</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="E89" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B90" s="21">
+      <c r="B90" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="D90" s="21">
         <v>1967</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="E90" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B91" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="D91" s="27">
         <v>1993</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="E91" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="23">
+      <c r="B92" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" s="23">
         <v>1993</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B93" s="21">
+      <c r="B93" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D93" s="21">
         <v>1989</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="E93" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="21">
+      <c r="B94" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94" s="21">
         <v>1898</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="E94" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="23">
+      <c r="B95" t="s">
+        <v>277</v>
+      </c>
+      <c r="D95" s="23">
         <v>1898</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
       <c r="F95" s="6"/>
-    </row>
-    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B96" s="27">
+      <c r="B96" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D96" s="27">
         <v>1957</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="E96" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="21">
+      <c r="B97" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D97" s="21">
         <v>1959</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="E97" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B98" s="21">
+      <c r="B98" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D98" s="21">
         <v>1957</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="E98" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B99" s="21">
+      <c r="B99" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D99" s="21">
         <v>1999</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="E99" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B100" s="21">
+      <c r="B100" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="D100" s="21">
         <v>1966</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="E100" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="27">
+      <c r="B101" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D101" s="27">
         <v>1962</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="E101" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="26">
+      <c r="B102" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D102" s="26">
         <v>1962</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="E102" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="23">
+      <c r="B103" t="s">
+        <v>284</v>
+      </c>
+      <c r="D103" s="23">
         <v>1961</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="E103" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="27">
+      <c r="B104" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D104" s="27">
         <v>1961</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="E104" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B105" s="24">
+      <c r="B105" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D105" s="24">
         <v>1977</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="23">
+      <c r="B106" t="s">
+        <v>287</v>
+      </c>
+      <c r="D106" s="23">
         <v>1986</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="E106" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
       <c r="F106" s="6"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B107" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D107" s="27">
         <v>1986</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="E107" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F107" s="6"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="27">
+      <c r="B108" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="D108" s="27">
         <v>1999</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="E108" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F108" s="6"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B109" s="23">
+      <c r="B109" t="s">
+        <v>288</v>
+      </c>
+      <c r="D109" s="23">
         <v>1999</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="E109" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
       <c r="F109" s="6"/>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B110" s="27">
+      <c r="B110" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D110" s="27">
         <v>1982</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="E110" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="F110" s="6"/>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B111" s="21">
+      <c r="B111" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="D111" s="21">
         <v>1941</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="E111" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B112" s="21">
+      <c r="B112" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="D112" s="21">
         <v>1964</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="E112" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="21">
+      <c r="B113" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D113" s="21">
         <v>1985</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="E113" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="23">
+      <c r="B114" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" s="23">
         <v>1985</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="E114" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
       <c r="F114" s="6"/>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B115" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="E115" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" s="35"/>
+      <c r="D116" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="E116" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F116" s="6"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B117" s="23">
+      <c r="B117" t="s">
+        <v>293</v>
+      </c>
+      <c r="D117" s="23">
         <v>1981</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="E117" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
       <c r="F117" s="6"/>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B118" s="27">
+      <c r="B118" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D118" s="27">
         <v>1981</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="E118" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B119" s="21">
+      <c r="B119" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D119" s="21">
         <v>1979</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="E119" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B120" s="27">
+      <c r="B120" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="D120" s="27">
         <v>1995</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="E120" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B121" s="26">
+      <c r="B121" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D121" s="26">
         <v>1995</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="E121" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
       <c r="F121" s="6"/>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="26">
+      <c r="B122" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D122" s="26">
         <v>1966</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="E122" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
       <c r="F122" s="6"/>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B123" s="21">
+      <c r="B123" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D123" s="21">
         <v>1966</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="E123" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F123" s="6"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B124" s="27">
+      <c r="B124" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="D124" s="27">
         <v>1940</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="E124" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F124" s="6"/>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B125" s="23">
+      <c r="B125" t="s">
+        <v>297</v>
+      </c>
+      <c r="D125" s="23">
         <v>1940</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="E125" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
       <c r="F125" s="6"/>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B126" s="26">
+      <c r="B126" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D126" s="26">
         <v>1988</v>
       </c>
-      <c r="C126" s="16" t="s">
+      <c r="E126" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
       <c r="F126" s="6"/>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B127" s="21">
+      <c r="B127" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D127" s="21">
         <v>1988</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="E127" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B128" s="27">
+      <c r="B128" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D128" s="27">
         <v>1094</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="E128" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B129" s="23">
+      <c r="B129" t="s">
+        <v>299</v>
+      </c>
+      <c r="D129" s="23">
         <v>1094</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="E129" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
       <c r="F129" s="6"/>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B130" s="21">
+      <c r="B130" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D130" s="21">
         <v>1994</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="E130" s="10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B131" s="27">
+      <c r="B131" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="D131" s="27">
         <v>2010</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="E131" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B132" s="27">
+      <c r="B132" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="D132" s="27">
         <v>1993</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="E132" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B133" s="24">
+      <c r="B133" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D133" s="24">
         <v>1950</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="E133" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B134" s="27">
+      <c r="B134" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="D134" s="27">
         <v>1964</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="E134" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>190</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="B135" t="s">
+        <v>306</v>
+      </c>
+      <c r="C135" t="s">
+        <v>307</v>
+      </c>
+      <c r="D135" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C135" t="s">
+      <c r="E135" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C136" s="6"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E136" s="6"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
-      <c r="C138" s="6"/>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="15"/>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+    </row>
+    <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
-      <c r="C141" s="6"/>
-    </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12"/>
-      <c r="C142" s="6"/>
-    </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="16"/>
-      <c r="C143" s="6"/>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="16"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="15"/>
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="15"/>
-      <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="G147" s="3"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G148" s="3"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-    </row>
-    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="15"/>
-      <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="29"/>
+      <c r="C153" s="29"/>
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="15"/>
-      <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="29"/>
+      <c r="C154" s="29"/>
+      <c r="F154" s="6"/>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="15"/>
-      <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="29"/>
+      <c r="C155" s="29"/>
+      <c r="F155" s="6"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F156" s="6"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
       <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
       <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="16"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12"/>
-    </row>
-    <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-    </row>
-    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="15"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D166" s="6"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="29"/>
+      <c r="C164" s="29"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="6"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
+      <c r="B169" s="6"/>
       <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-    </row>
-    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="12"/>
-    </row>
-    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
-    </row>
-    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="15"/>
-    </row>
-    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="29"/>
+      <c r="C172" s="29"/>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="16"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-    </row>
-    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="30"/>
+      <c r="C173" s="30"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="15"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="29"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F181">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H181">
     <sortCondition ref="A2:A181"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
